--- a/data/rna-dna/sample_metadata.xlsx
+++ b/data/rna-dna/sample_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B308C5-2722-4E40-846C-4343A8437537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD77B9-E893-FA48-AD71-207981172EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="10660" windowHeight="15980" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
+    <workbookView xWindow="34280" yWindow="-1460" windowWidth="27140" windowHeight="17500" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="14">
   <si>
     <t>tube</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>FTR -80C</t>
+  </si>
+  <si>
+    <t>with Lauren 1/13</t>
   </si>
 </sst>
 </file>
@@ -446,11 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD65DDB-7482-D846-9B42-22485EDC3B2E}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,8 +525,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -560,7 +569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -580,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -600,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -620,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -640,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -660,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -680,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -700,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -740,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -760,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -780,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -819,8 +831,11 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -840,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -860,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -880,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -900,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -920,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -940,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -960,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -980,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2100,7 +2115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2139,8 +2154,11 @@
       <c r="F84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2160,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2180,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2200,7 +2218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2219,8 +2237,11 @@
       <c r="F88" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2240,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2280,7 +2301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2300,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2320,7 +2341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2340,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2360,7 +2381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>

--- a/data/rna-dna/sample_metadata.xlsx
+++ b/data/rna-dna/sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FD77B9-E893-FA48-AD71-207981172EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF81DD-7A9C-DB4A-BABD-7D98017F7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34280" yWindow="-1460" windowWidth="27140" windowHeight="17500" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="18">
   <si>
     <t>tube</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>with Lauren 1/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treated </t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>check notebook for tank number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seed </t>
   </si>
 </sst>
 </file>
@@ -449,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD65DDB-7482-D846-9B42-22485EDC3B2E}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,6 +494,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -2721,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2741,7 +2756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2801,7 +2816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2821,7 +2836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2861,7 +2876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2899,6 +2914,926 @@
       </c>
       <c r="F121" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>20250226</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122">
+        <v>500</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>20250226</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123">
+        <v>500</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>20250226</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124">
+        <v>500</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>20250226</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>500</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>20250226</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126">
+        <v>500</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>20250226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127">
+        <v>500</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>20250226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128">
+        <v>500</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>20250226</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>500</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>20250226</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130">
+        <v>500</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>20250226</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>500</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>20250226</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132">
+        <v>500</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>20250226</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133">
+        <v>500</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>20250226</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134">
+        <v>500</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>20250226</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>20250226</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>500</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>20250226</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>500</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>20250226</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>500</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>20250226</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139">
+        <v>500</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>20250226</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140">
+        <v>500</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>20250226</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>500</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>20250226</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>500</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>20250226</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>500</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>20250226</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>500</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>20250226</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>500</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>20250226</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>500</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>20250226</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>500</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>20250226</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>500</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>20250226</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>500</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>20250226</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>500</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>20250226</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>500</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>20250226</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>500</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>20250226</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>500</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>20250226</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>500</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>20250226</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155">
+        <v>500</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>20250226</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>500</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>20250226</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>500</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>20250226</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>500</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>20250226</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>500</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>20250226</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>500</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>20250226</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>500</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/rna-dna/sample_metadata.xlsx
+++ b/data/rna-dna/sample_metadata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF81DD-7A9C-DB4A-BABD-7D98017F7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D8C3A-6F22-DF43-8D09-2A53F46463F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34280" yWindow="-1460" windowWidth="27140" windowHeight="17500" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="38">
   <si>
     <t>tube</t>
   </si>
@@ -91,17 +91,84 @@
   <si>
     <t xml:space="preserve">seed </t>
   </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>Larvae</t>
+  </si>
+  <si>
+    <t>Replicate-Tanks-per-Treatment</t>
+  </si>
+  <si>
+    <t>Total-Samples</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>n=2-3</t>
+  </si>
+  <si>
+    <t>n=1</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>Spat</t>
+  </si>
+  <si>
+    <t>60 days</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>135 days</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,11 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD65DDB-7482-D846-9B42-22485EDC3B2E}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,9 +541,11 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -544,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -584,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -623,8 +693,23 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -643,8 +728,23 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -663,8 +763,23 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -683,8 +798,23 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -703,8 +833,23 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -723,8 +868,23 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -743,8 +903,23 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -763,8 +938,23 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -783,8 +973,23 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -803,8 +1008,23 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -826,8 +1046,23 @@
       <c r="G17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -849,8 +1084,15 @@
       <c r="G18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <f>SUM(O8:O17)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -870,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -890,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -910,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -930,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -950,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -970,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -990,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1010,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1030,7 +1272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1050,7 +1292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1070,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1090,7 +1332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1110,7 +1352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>

--- a/data/rna-dna/sample_metadata.xlsx
+++ b/data/rna-dna/sample_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D8C3A-6F22-DF43-8D09-2A53F46463F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D366C6-684A-C043-9CDE-ECB752534AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="39">
   <si>
     <t>tube</t>
   </si>
@@ -77,13 +77,7 @@
     <t>FTR -80C</t>
   </si>
   <si>
-    <t>with Lauren 1/13</t>
-  </si>
-  <si>
     <t xml:space="preserve">treated </t>
-  </si>
-  <si>
-    <t>tank</t>
   </si>
   <si>
     <t>check notebook for tank number</t>
@@ -151,6 +145,15 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>used - with Lauren 1/13</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
 </sst>
 </file>
 
@@ -172,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +551,7 @@
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.1640625" customWidth="1"/>
   </cols>
@@ -565,53 +576,56 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20241010</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>20241010</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
         <v>300</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -694,19 +708,19 @@
         <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -729,16 +743,16 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>15</v>
@@ -764,16 +778,16 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O9">
         <v>15</v>
@@ -799,16 +813,16 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10">
         <v>15</v>
@@ -834,16 +848,16 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O11">
         <v>15</v>
@@ -869,16 +883,16 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O12">
         <v>15</v>
@@ -904,16 +918,16 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O13">
         <v>15</v>
@@ -939,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
         <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>33</v>
       </c>
       <c r="O14">
         <v>15</v>
@@ -974,16 +988,16 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
         <v>31</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -1009,85 +1023,85 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>20241010</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
         <v>300</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N17" t="s">
+      <c r="M17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20241010</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>300</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>20241010</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <f>SUM(O8:O17)</f>
         <v>160</v>
       </c>
@@ -2392,27 +2406,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>20241021</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84">
-        <v>500</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <v>500</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2475,27 +2489,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>20241021</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88">
-        <v>500</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="2">
+        <v>500</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2978,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2998,7 +3012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3018,7 +3032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3038,7 +3052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3098,7 +3112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3158,7 +3172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3166,22 +3180,22 @@
         <v>20250226</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122">
+        <v>500</v>
+      </c>
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
         <v>14</v>
       </c>
-      <c r="E122">
-        <v>500</v>
-      </c>
-      <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3189,22 +3203,22 @@
         <v>20250226</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>500</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
         <v>14</v>
       </c>
-      <c r="E123">
-        <v>500</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3212,22 +3226,22 @@
         <v>20250226</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>500</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
         <v>14</v>
       </c>
-      <c r="E124">
-        <v>500</v>
-      </c>
-      <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3235,22 +3249,22 @@
         <v>20250226</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>500</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
         <v>14</v>
       </c>
-      <c r="E125">
-        <v>500</v>
-      </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3258,22 +3272,22 @@
         <v>20250226</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126">
+        <v>500</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
         <v>14</v>
       </c>
-      <c r="E126">
-        <v>500</v>
-      </c>
-      <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3281,22 +3295,22 @@
         <v>20250226</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127">
+        <v>500</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
         <v>14</v>
       </c>
-      <c r="E127">
-        <v>500</v>
-      </c>
-      <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3304,22 +3318,22 @@
         <v>20250226</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>500</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="E128">
-        <v>500</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3327,22 +3341,22 @@
         <v>20250226</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129">
+        <v>500</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
         <v>14</v>
       </c>
-      <c r="E129">
-        <v>500</v>
-      </c>
-      <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3350,22 +3364,22 @@
         <v>20250226</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>500</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
         <v>14</v>
       </c>
-      <c r="E130">
-        <v>500</v>
-      </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3373,22 +3387,22 @@
         <v>20250226</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>500</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
         <v>14</v>
       </c>
-      <c r="E131">
-        <v>500</v>
-      </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3396,22 +3410,22 @@
         <v>20250226</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132">
+        <v>500</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
         <v>14</v>
       </c>
-      <c r="E132">
-        <v>500</v>
-      </c>
-      <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3419,22 +3433,22 @@
         <v>20250226</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>500</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
         <v>14</v>
       </c>
-      <c r="E133">
-        <v>500</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3442,22 +3456,22 @@
         <v>20250226</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>500</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
         <v>14</v>
       </c>
-      <c r="E134">
-        <v>500</v>
-      </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3465,22 +3479,22 @@
         <v>20250226</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
         <v>14</v>
       </c>
-      <c r="E135">
-        <v>500</v>
-      </c>
-      <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3488,22 +3502,22 @@
         <v>20250226</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>500</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
         <v>14</v>
       </c>
-      <c r="E136">
-        <v>500</v>
-      </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3511,22 +3525,22 @@
         <v>20250226</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>500</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
         <v>14</v>
       </c>
-      <c r="E137">
-        <v>500</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3534,22 +3548,22 @@
         <v>20250226</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138">
+        <v>500</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
         <v>14</v>
       </c>
-      <c r="E138">
-        <v>500</v>
-      </c>
-      <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3557,22 +3571,22 @@
         <v>20250226</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>500</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
         <v>14</v>
       </c>
-      <c r="E139">
-        <v>500</v>
-      </c>
-      <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3580,22 +3594,22 @@
         <v>20250226</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <v>500</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
         <v>14</v>
       </c>
-      <c r="E140">
-        <v>500</v>
-      </c>
-      <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3603,22 +3617,22 @@
         <v>20250226</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <v>500</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
         <v>14</v>
       </c>
-      <c r="E141">
-        <v>500</v>
-      </c>
-      <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3626,7 +3640,7 @@
         <v>20250226</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -3637,11 +3651,11 @@
       <c r="F142" t="s">
         <v>12</v>
       </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>20250226</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -3660,11 +3674,11 @@
       <c r="F143" t="s">
         <v>12</v>
       </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>20250226</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -3683,11 +3697,11 @@
       <c r="F144" t="s">
         <v>12</v>
       </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3695,7 +3709,7 @@
         <v>20250226</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -3706,11 +3720,11 @@
       <c r="F145" t="s">
         <v>12</v>
       </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>20250226</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -3729,11 +3743,11 @@
       <c r="F146" t="s">
         <v>12</v>
       </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>20250226</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -3752,11 +3766,11 @@
       <c r="F147" t="s">
         <v>12</v>
       </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3764,7 +3778,7 @@
         <v>20250226</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -3775,11 +3789,11 @@
       <c r="F148" t="s">
         <v>12</v>
       </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3787,7 +3801,7 @@
         <v>20250226</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -3798,11 +3812,11 @@
       <c r="F149" t="s">
         <v>12</v>
       </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3810,7 +3824,7 @@
         <v>20250226</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -3821,11 +3835,11 @@
       <c r="F150" t="s">
         <v>12</v>
       </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>20250226</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -3844,11 +3858,11 @@
       <c r="F151" t="s">
         <v>12</v>
       </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>20250226</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -3867,11 +3881,11 @@
       <c r="F152" t="s">
         <v>12</v>
       </c>
-      <c r="G152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>20250226</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -3890,11 +3904,11 @@
       <c r="F153" t="s">
         <v>12</v>
       </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3902,7 +3916,7 @@
         <v>20250226</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -3913,11 +3927,11 @@
       <c r="F154" t="s">
         <v>12</v>
       </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3925,7 +3939,7 @@
         <v>20250226</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -3936,11 +3950,11 @@
       <c r="F155" t="s">
         <v>12</v>
       </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3948,7 +3962,7 @@
         <v>20250226</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -3959,11 +3973,11 @@
       <c r="F156" t="s">
         <v>12</v>
       </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3971,7 +3985,7 @@
         <v>20250226</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -3982,11 +3996,11 @@
       <c r="F157" t="s">
         <v>12</v>
       </c>
-      <c r="G157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>20250226</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -4005,11 +4019,11 @@
       <c r="F158" t="s">
         <v>12</v>
       </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>20250226</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -4028,11 +4042,11 @@
       <c r="F159" t="s">
         <v>12</v>
       </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>20250226</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -4051,11 +4065,11 @@
       <c r="F160" t="s">
         <v>12</v>
       </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>20250226</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -4074,8 +4088,8 @@
       <c r="F161" t="s">
         <v>12</v>
       </c>
-      <c r="G161" t="s">
-        <v>16</v>
+      <c r="H161" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/rna-dna/sample_metadata.xlsx
+++ b/data/rna-dna/sample_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D366C6-684A-C043-9CDE-ECB752534AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257E8FE-1760-C24C-B0F2-19EEE6315B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{0DAF8851-3CE0-B641-BA5A-C7AC4208D2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="42">
   <si>
     <t>tube</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">treated </t>
-  </si>
-  <si>
-    <t>check notebook for tank number</t>
   </si>
   <si>
     <t xml:space="preserve">seed </t>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>tank5</t>
+  </si>
+  <si>
+    <t>tank4</t>
+  </si>
+  <si>
+    <t>tank2</t>
+  </si>
+  <si>
+    <t>tank1</t>
   </si>
 </sst>
 </file>
@@ -542,8 +551,8 @@
   <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -602,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -625,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -708,19 +717,19 @@
         <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -743,16 +752,16 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8">
         <v>15</v>
@@ -778,16 +787,16 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9">
         <v>15</v>
@@ -813,16 +822,16 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
         <v>25</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
       </c>
       <c r="O10">
         <v>15</v>
@@ -848,16 +857,16 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
       </c>
       <c r="O11">
         <v>15</v>
@@ -883,16 +892,16 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12">
         <v>15</v>
@@ -918,16 +927,16 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13">
         <v>15</v>
@@ -953,16 +962,16 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
         <v>29</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
       </c>
       <c r="O14">
         <v>15</v>
@@ -988,16 +997,16 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
         <v>29</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -1023,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
         <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>33</v>
       </c>
       <c r="O16">
         <v>20</v>
@@ -1058,19 +1067,19 @@
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="O17" s="2">
         <v>20</v>
@@ -1096,10 +1105,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18" s="2">
         <f>SUM(O8:O17)</f>
@@ -2426,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2509,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3180,7 +3189,7 @@
         <v>20250226</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -3192,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,7 +3212,7 @@
         <v>20250226</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -3215,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -3226,7 +3235,7 @@
         <v>20250226</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -3238,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -3249,7 +3258,7 @@
         <v>20250226</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -3261,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -3272,7 +3281,7 @@
         <v>20250226</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -3284,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -3295,7 +3304,7 @@
         <v>20250226</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -3307,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -3318,7 +3327,7 @@
         <v>20250226</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -3330,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3341,7 +3350,7 @@
         <v>20250226</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -3353,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3364,7 +3373,7 @@
         <v>20250226</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -3376,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3387,7 +3396,7 @@
         <v>20250226</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -3399,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,7 +3419,7 @@
         <v>20250226</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -3422,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3433,7 +3442,7 @@
         <v>20250226</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
@@ -3445,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -3456,7 +3465,7 @@
         <v>20250226</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -3468,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -3479,7 +3488,7 @@
         <v>20250226</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -3491,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3502,7 +3511,7 @@
         <v>20250226</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
@@ -3514,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3525,7 +3534,7 @@
         <v>20250226</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -3537,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3548,7 +3557,7 @@
         <v>20250226</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -3560,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,7 +3580,7 @@
         <v>20250226</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -3583,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -3594,7 +3603,7 @@
         <v>20250226</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -3606,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,7 +3626,7 @@
         <v>20250226</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -3629,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,7 +3649,7 @@
         <v>20250226</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -3652,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3663,7 +3672,7 @@
         <v>20250226</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -3675,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -3686,7 +3695,7 @@
         <v>20250226</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -3698,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3709,7 +3718,7 @@
         <v>20250226</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -3721,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3732,7 +3741,7 @@
         <v>20250226</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -3744,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3755,7 +3764,7 @@
         <v>20250226</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -3767,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3778,7 +3787,7 @@
         <v>20250226</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -3790,7 +3799,7 @@
         <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3801,7 +3810,7 @@
         <v>20250226</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -3813,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3824,7 +3833,7 @@
         <v>20250226</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -3836,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3847,7 +3856,7 @@
         <v>20250226</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -3859,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -3870,7 +3879,7 @@
         <v>20250226</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -3882,7 +3891,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -3893,7 +3902,7 @@
         <v>20250226</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -3905,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3916,7 +3925,7 @@
         <v>20250226</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -3928,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3939,7 +3948,7 @@
         <v>20250226</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -3951,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -3962,7 +3971,7 @@
         <v>20250226</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -3974,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -3985,7 +3994,7 @@
         <v>20250226</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -3997,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -4008,7 +4017,7 @@
         <v>20250226</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -4020,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -4031,7 +4040,7 @@
         <v>20250226</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -4043,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -4054,7 +4063,7 @@
         <v>20250226</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -4066,7 +4075,7 @@
         <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -4077,7 +4086,7 @@
         <v>20250226</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -4089,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
